--- a/teaching/traditional_assets/database/data/greece/greece_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_insurance_prop_cas.xlsx
@@ -591,121 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0548</v>
-      </c>
-      <c r="E2">
-        <v>-0.008359999999999999</v>
+        <v>0.0795</v>
       </c>
       <c r="G2">
-        <v>0.1449086161879896</v>
+        <v>0.3963585434173669</v>
       </c>
       <c r="H2">
-        <v>0.1449086161879896</v>
+        <v>0.3963585434173669</v>
       </c>
       <c r="I2">
-        <v>0.283289817232376</v>
+        <v>0.1708683473389356</v>
       </c>
       <c r="J2">
-        <v>0.1996696211808895</v>
+        <v>0.1308634564937086</v>
       </c>
       <c r="K2">
-        <v>16</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="L2">
-        <v>0.2088772845953003</v>
+        <v>0.1348739495798319</v>
       </c>
       <c r="M2">
-        <v>1.061</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0198689138576779</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0663125</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01966292134831461</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.065625</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0109999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.01036757775683308</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>56.6</v>
+        <v>55.3</v>
       </c>
       <c r="V2">
-        <v>1.059925093632959</v>
+        <v>0.7691237830319888</v>
       </c>
       <c r="W2">
-        <v>0.1889020070838253</v>
+        <v>0.09786585365853659</v>
       </c>
       <c r="X2">
-        <v>0.06778047705470135</v>
+        <v>0.06313290179349144</v>
       </c>
       <c r="Y2">
-        <v>0.1211215300291239</v>
+        <v>0.03473295186504514</v>
       </c>
       <c r="Z2">
-        <v>1.640256959314775</v>
+        <v>1.698624922681639</v>
       </c>
       <c r="AA2">
-        <v>0.3275094857056989</v>
+        <v>0.2222879286684777</v>
       </c>
       <c r="AB2">
-        <v>0.06771042417079673</v>
+        <v>0.06309072590170704</v>
       </c>
       <c r="AC2">
-        <v>0.2597990615349022</v>
+        <v>0.1591972027667707</v>
       </c>
       <c r="AD2">
-        <v>0.234</v>
+        <v>0.188</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.234</v>
+        <v>0.188</v>
       </c>
       <c r="AG2">
-        <v>-56.366</v>
+        <v>-55.11199999999999</v>
       </c>
       <c r="AH2">
-        <v>0.004362904127978521</v>
+        <v>0.002607923648873599</v>
       </c>
       <c r="AI2">
-        <v>0.002372407080722672</v>
+        <v>0.001755565516210966</v>
       </c>
       <c r="AJ2">
-        <v>19.00404585300067</v>
+        <v>-3.282821062663805</v>
       </c>
       <c r="AK2">
-        <v>-1.340962078317552</v>
+        <v>-1.064184753224685</v>
       </c>
       <c r="AL2">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AM2">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AN2">
-        <v>0.01058823529411765</v>
+        <v>0.01504</v>
       </c>
       <c r="AO2">
-        <v>3616.666666666667</v>
+        <v>1525</v>
       </c>
       <c r="AP2">
-        <v>-2.550497737556561</v>
+        <v>-4.40896</v>
       </c>
       <c r="AQ2">
-        <v>3616.666666666667</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0548</v>
-      </c>
-      <c r="E3">
-        <v>-0.008359999999999999</v>
+        <v>0.0795</v>
       </c>
       <c r="G3">
-        <v>0.1449086161879896</v>
+        <v>0.3963585434173669</v>
       </c>
       <c r="H3">
-        <v>0.1449086161879896</v>
+        <v>0.3963585434173669</v>
       </c>
       <c r="I3">
-        <v>0.283289817232376</v>
+        <v>0.1708683473389356</v>
       </c>
       <c r="J3">
-        <v>0.1996696211808895</v>
+        <v>0.1308634564937086</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="L3">
-        <v>0.2088772845953003</v>
+        <v>0.1348739495798319</v>
       </c>
       <c r="M3">
-        <v>1.061</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.0198689138576779</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.0663125</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.01966292134831461</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.065625</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.0109999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.01036757775683308</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>56.6</v>
+        <v>55.3</v>
       </c>
       <c r="V3">
-        <v>1.059925093632959</v>
+        <v>0.7691237830319888</v>
       </c>
       <c r="W3">
-        <v>0.1889020070838253</v>
+        <v>0.09786585365853659</v>
       </c>
       <c r="X3">
-        <v>0.06778047705470135</v>
+        <v>0.06313290179349144</v>
       </c>
       <c r="Y3">
-        <v>0.1211215300291239</v>
+        <v>0.03473295186504514</v>
       </c>
       <c r="Z3">
-        <v>1.640256959314775</v>
+        <v>1.698624922681639</v>
       </c>
       <c r="AA3">
-        <v>0.3275094857056989</v>
+        <v>0.2222879286684777</v>
       </c>
       <c r="AB3">
-        <v>0.06771042417079673</v>
+        <v>0.06309072590170704</v>
       </c>
       <c r="AC3">
-        <v>0.2597990615349022</v>
+        <v>0.1591972027667707</v>
       </c>
       <c r="AD3">
-        <v>0.234</v>
+        <v>0.188</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.234</v>
+        <v>0.188</v>
       </c>
       <c r="AG3">
-        <v>-56.366</v>
+        <v>-55.11199999999999</v>
       </c>
       <c r="AH3">
-        <v>0.004362904127978521</v>
+        <v>0.002607923648873599</v>
       </c>
       <c r="AI3">
-        <v>0.002372407080722672</v>
+        <v>0.001755565516210966</v>
       </c>
       <c r="AJ3">
-        <v>19.00404585300067</v>
+        <v>-3.282821062663805</v>
       </c>
       <c r="AK3">
-        <v>-1.340962078317552</v>
+        <v>-1.064184753224685</v>
       </c>
       <c r="AL3">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AM3">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AN3">
-        <v>0.01058823529411765</v>
+        <v>0.01504</v>
       </c>
       <c r="AO3">
-        <v>3616.666666666667</v>
+        <v>1525</v>
       </c>
       <c r="AP3">
-        <v>-2.550497737556561</v>
+        <v>-4.40896</v>
       </c>
       <c r="AQ3">
-        <v>3616.666666666667</v>
+        <v>1525</v>
       </c>
     </row>
   </sheetData>
